--- a/data/case1/11/cost_3.xlsx
+++ b/data/case1/11/cost_3.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>160.50415625629537</v>
+        <v>160.50252676253305</v>
       </c>
       <c r="B1" s="0">
-        <v>5.5742149467709057</v>
+        <v>5.9762139185384751</v>
       </c>
       <c r="C1" s="0">
-        <v>1.871493803000652</v>
+        <v>1.144911937377691</v>
       </c>
     </row>
   </sheetData>
